--- a/biology/Botanique/Aechmea_nudicaulis/Aechmea_nudicaulis.xlsx
+++ b/biology/Botanique/Aechmea_nudicaulis/Aechmea_nudicaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea nudicaulis est une espèce de plante à fleurs de la famille des Bromeliaceae, couramment utilisée comme plante ornementale et largement répandue en Amérique centrale, dans les Caraïbes et en Amérique du Sud.
 </t>
@@ -511,24 +523,26 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Billbergia aureorosea Baker[1] ;
-Billbergia lanuginosa K.Koch[1] ;
-Billbergia lutea Schult. &amp; Schult.f.[1] ;
-Billbergia nudicaulis (L.) Lindl.[1] ;
-Billbergia pyramidalis J.Forbes [non-légitime][1] ;
-Billbergia pyramidata Beer[1] ;
-Billbergia quadricolor C.Chev. [non-valide][1] ;
-Bromelia gigantea Schult. &amp; Schult.f. [non-valide][1] ;
-Bromelia nudicaulis L.[1] ;
-Hohenbergia nudicaulis (L.) Baker[1] ;
-Hoplophytum lanuginosum (K.Koch) Beer[1] ;
-Hoplophytum nudicaule (L.) K.Koch[1] ;
-Pothuava nudicaulis (L.) Regel[1] ;
-Tillandsia saxatilis Vell.[1] ;
-Tillandsia serrata Sessé &amp; Moc.[1].
+Billbergia aureorosea Baker ;
+Billbergia lanuginosa K.Koch ;
+Billbergia lutea Schult. &amp; Schult.f. ;
+Billbergia nudicaulis (L.) Lindl. ;
+Billbergia pyramidalis J.Forbes [non-légitime] ;
+Billbergia pyramidata Beer ;
+Billbergia quadricolor C.Chev. [non-valide] ;
+Bromelia gigantea Schult. &amp; Schult.f. [non-valide] ;
+Bromelia nudicaulis L. ;
+Hohenbergia nudicaulis (L.) Baker ;
+Hoplophytum lanuginosum (K.Koch) Beer ;
+Hoplophytum nudicaule (L.) K.Koch ;
+Pothuava nudicaulis (L.) Regel ;
+Tillandsia saxatilis Vell. ;
+Tillandsia serrata Sessé &amp; Moc..
 </t>
         </is>
       </c>
@@ -557,7 +571,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aechmea nudicaulis var. aequalis  L.B.Sm. &amp; Reitz, 1963 
 Aechmea nudicaulis var. aureorosea ( Antoine) L.B. Smith, 1955
@@ -595,9 +611,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est largement répandu du Mexique, aux Caraïbes et à l'Amérique du Sud. On la rencontre notamment au Mexique, au Costa Rica, au Honduras, au Nicaragua, à Cuba, Haïti, République dominicaine, en Guyane, au Guyana, au Venezuela, en Colombie, en Équateur, au Pérou et au Brésil[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est largement répandu du Mexique, aux Caraïbes et à l'Amérique du Sud. On la rencontre notamment au Mexique, au Costa Rica, au Honduras, au Nicaragua, à Cuba, Haïti, République dominicaine, en Guyane, au Guyana, au Venezuela, en Colombie, en Équateur, au Pérou et au Brésil.
 </t>
         </is>
       </c>
@@ -626,9 +644,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce et épiphyte ou hémicryptophyte[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce et épiphyte ou hémicryptophyte.
 </t>
         </is>
       </c>
